--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Wnt1-Fzd9.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Wnt1-Fzd9.xlsx
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.7132103333333334</v>
+        <v>0.083686</v>
       </c>
       <c r="N2">
-        <v>2.139631</v>
+        <v>0.251058</v>
       </c>
       <c r="O2">
-        <v>0.3847801132923274</v>
+        <v>0.08174459316063268</v>
       </c>
       <c r="P2">
-        <v>0.3847801132923274</v>
+        <v>0.08174459316063269</v>
       </c>
       <c r="Q2">
-        <v>0.05082859856244445</v>
+        <v>0.005964078057333334</v>
       </c>
       <c r="R2">
-        <v>0.457457387062</v>
+        <v>0.053676702516</v>
       </c>
       <c r="S2">
-        <v>0.3847801132923274</v>
+        <v>0.08174459316063268</v>
       </c>
       <c r="T2">
-        <v>0.3847801132923274</v>
+        <v>0.08174459316063269</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -620,10 +620,10 @@
         <v>1.831709</v>
       </c>
       <c r="O3">
-        <v>0.3294050219587282</v>
+        <v>0.5964052409947874</v>
       </c>
       <c r="P3">
-        <v>0.3294050219587283</v>
+        <v>0.5964052409947875</v>
       </c>
       <c r="Q3">
         <v>0.04351367195755556</v>
@@ -632,10 +632,10 @@
         <v>0.391623047618</v>
       </c>
       <c r="S3">
-        <v>0.3294050219587282</v>
+        <v>0.5964052409947874</v>
       </c>
       <c r="T3">
-        <v>0.3294050219587283</v>
+        <v>0.5964052409947875</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.529773</v>
+        <v>0.329494</v>
       </c>
       <c r="N4">
-        <v>1.589319</v>
+        <v>0.988482</v>
       </c>
       <c r="O4">
-        <v>0.2858148647489443</v>
+        <v>0.3218501658445798</v>
       </c>
       <c r="P4">
-        <v>0.2858148647489444</v>
+        <v>0.3218501658445799</v>
       </c>
       <c r="Q4">
-        <v>0.037755508982</v>
+        <v>0.02348215872933334</v>
       </c>
       <c r="R4">
-        <v>0.339799580838</v>
+        <v>0.211339428564</v>
       </c>
       <c r="S4">
-        <v>0.2858148647489443</v>
+        <v>0.3218501658445798</v>
       </c>
       <c r="T4">
-        <v>0.2858148647489444</v>
+        <v>0.3218501658445799</v>
       </c>
     </row>
   </sheetData>
